--- a/Bawang Merah/BM.xlsx
+++ b/Bawang Merah/BM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\Bawang Merah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545C7531-1BFD-4CCE-BB09-1A48A13A04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759D37A-B9B2-4B4A-91B9-1F420218A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Luas Panen" sheetId="1" r:id="rId1"/>
@@ -351,66 +351,6 @@
   <dxfs count="36">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -706,22 +646,48 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
@@ -759,32 +725,6 @@
         <top/>
         <bottom/>
       </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1084,22 +1024,48 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
@@ -1137,32 +1103,6 @@
         <top/>
         <bottom/>
       </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1462,26 +1402,86 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
         <bottom style="thin">
           <color indexed="10"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="10"/>
         </left>
         <right style="thin">
           <color indexed="10"/>
         </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1565,48 +1565,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD9052C5-0CB9-4836-B7B2-294F3959CF3C}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD9052C5-0CB9-4836-B7B2-294F3959CF3C}" name="LuasPanen_BM" displayName="LuasPanen_BM" ref="A1:G35" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:G35" xr:uid="{CD9052C5-0CB9-4836-B7B2-294F3959CF3C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{438A5634-71EE-401E-923D-A4FB9C7656B9}" name="Tahun" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{3B502028-2C68-4A58-990C-7FC597C8C07A}" name="2015" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{34D87720-51BD-4B0C-A493-EDE5217B71EA}" name="2016" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{AFCC5E4D-455A-43C0-8521-45644729888B}" name="2017" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{64614496-6CEB-4ACE-A453-84FEC8E45DD7}" name="2018" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C1EB2251-C239-4256-BDF2-8BEFC03F3BA2}" name="2019" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{CB96DC46-DDD3-4FEC-8104-F7778BCF289D}" name="2020" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{438A5634-71EE-401E-923D-A4FB9C7656B9}" name="Tahun" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{3B502028-2C68-4A58-990C-7FC597C8C07A}" name="2015" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{34D87720-51BD-4B0C-A493-EDE5217B71EA}" name="2016" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{AFCC5E4D-455A-43C0-8521-45644729888B}" name="2017" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{64614496-6CEB-4ACE-A453-84FEC8E45DD7}" name="2018" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C1EB2251-C239-4256-BDF2-8BEFC03F3BA2}" name="2019" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{CB96DC46-DDD3-4FEC-8104-F7778BCF289D}" name="2020" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41CA6D0C-2B48-4E88-808F-7431552FD47E}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{41CA6D0C-2B48-4E88-808F-7431552FD47E}" name="Produksi_BM" displayName="Produksi_BM" ref="A1:G35" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:G35" xr:uid="{41CA6D0C-2B48-4E88-808F-7431552FD47E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B8E420AF-61D6-4154-80E9-9AA17BFD1FA6}" name="Tahun" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E235AF35-B692-4BA5-AAF1-DB63EEE04CCE}" name="2015" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{B535089D-CE1D-47CB-A3E5-35E79729DB96}" name="2016" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{267670B5-5E6A-4E75-88F8-F6D43F9FD50A}" name="2017" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5830468E-8F73-49D0-9DC5-C5BC16569953}" name="2018" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{5AE081B2-AC25-4F38-A4E2-C945081D601B}" name="2019" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{59F741FC-453C-4193-B400-EB4E6DDF890A}" name="2020" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{B8E420AF-61D6-4154-80E9-9AA17BFD1FA6}" name="Tahun" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E235AF35-B692-4BA5-AAF1-DB63EEE04CCE}" name="2015" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B535089D-CE1D-47CB-A3E5-35E79729DB96}" name="2016" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{267670B5-5E6A-4E75-88F8-F6D43F9FD50A}" name="2017" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5830468E-8F73-49D0-9DC5-C5BC16569953}" name="2018" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{5AE081B2-AC25-4F38-A4E2-C945081D601B}" name="2019" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{59F741FC-453C-4193-B400-EB4E6DDF890A}" name="2020" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{713C6D0A-B690-4A56-8E79-C4BE73EE5FC7}" name="Table3" displayName="Table3" ref="A1:G35" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{713C6D0A-B690-4A56-8E79-C4BE73EE5FC7}" name="Produktivitas_BM" displayName="Produktivitas_BM" ref="A1:G35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G35" xr:uid="{713C6D0A-B690-4A56-8E79-C4BE73EE5FC7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E12DACB0-0DED-4837-B191-5BA18D7C422F}" name="Tahun" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{41A7CBB3-9C47-431E-A496-6A30E5D8C3A0}" name="2015" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{702D6C2D-FE1B-4128-B00D-40730FF6DFF1}" name="2016" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{54BCAD04-DDBD-4042-A97D-426FA5ADBFAF}" name="2017" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3A8097DB-AAC7-429C-A881-868695784642}" name="2018" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4DAA105B-B060-4904-81EE-7D638AF69129}" name="2019" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BD705F97-DDD7-4E8F-A5A7-BE90E92301C5}" name="2020" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E12DACB0-0DED-4837-B191-5BA18D7C422F}" name="Tahun" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{41A7CBB3-9C47-431E-A496-6A30E5D8C3A0}" name="2015" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{702D6C2D-FE1B-4128-B00D-40730FF6DFF1}" name="2016" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{54BCAD04-DDBD-4042-A97D-426FA5ADBFAF}" name="2017" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3A8097DB-AAC7-429C-A881-868695784642}" name="2018" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4DAA105B-B060-4904-81EE-7D638AF69129}" name="2019" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{BD705F97-DDD7-4E8F-A5A7-BE90E92301C5}" name="2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M245"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,7 +5694,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7E9F63-1E17-4E3C-8210-A08CE4A4E0E0}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
